--- a/Causal Inference/TermProject/Tables/LatexTables.xlsx
+++ b/Causal Inference/TermProject/Tables/LatexTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/AppliedEconometrics/Causal Inference/TermProject/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C842981D-3C88-E14F-918A-C07C051C893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F53D2-2902-4A48-899C-FAAF0F1288B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{8637332F-D254-3D43-93CC-278FF1B960FE}"/>
+    <workbookView xWindow="1580" yWindow="3020" windowWidth="28040" windowHeight="17440" xr2:uid="{8637332F-D254-3D43-93CC-278FF1B960FE}"/>
   </bookViews>
   <sheets>
     <sheet name="SumStats" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
   <si>
     <t>&amp;</t>
   </si>
@@ -44,46 +44,40 @@
     <t>\\</t>
   </si>
   <si>
-    <t>GDP per capita (2013)</t>
-  </si>
-  <si>
-    <t>P-val</t>
-  </si>
-  <si>
-    <t>(0.947)</t>
-  </si>
-  <si>
-    <t>(0.993)</t>
-  </si>
-  <si>
-    <t>(0.902)</t>
-  </si>
-  <si>
-    <t>(0.906)</t>
-  </si>
-  <si>
-    <t>(0.996)</t>
-  </si>
-  <si>
-    <t>(0.984)</t>
-  </si>
-  <si>
-    <t>Net Creation of Jobs, All Sectors</t>
-  </si>
-  <si>
-    <t>Net Creation of Jobs, Transportation</t>
-  </si>
-  <si>
-    <t>Net Creation of Jobs, Accomodation</t>
-  </si>
-  <si>
-    <t>Net Creation of Jobs, Retail</t>
-  </si>
-  <si>
-    <t>Net Creation of Jobs, Construction</t>
-  </si>
-  <si>
     <t>[0.25em]</t>
+  </si>
+  <si>
+    <t>Net Change in Hours, All Sectors</t>
+  </si>
+  <si>
+    <t>Net Change in Hours, Construction</t>
+  </si>
+  <si>
+    <t>Net Change in Hours, Retail</t>
+  </si>
+  <si>
+    <t>Net Change in Hours, Accomodation</t>
+  </si>
+  <si>
+    <t>Net Change in Hours, Transportation</t>
+  </si>
+  <si>
+    <t>GDP per capita (in thousand BRL)</t>
+  </si>
+  <si>
+    <t>Net Change in Jobs, All Sectors</t>
+  </si>
+  <si>
+    <t>Net Change in Jobs, Transportation</t>
+  </si>
+  <si>
+    <t>Net Change in Jobs, Accomodation</t>
+  </si>
+  <si>
+    <t>Net Change in Jobs, Retail</t>
+  </si>
+  <si>
+    <t>Net Change in Jobs, Construction</t>
   </si>
 </sst>
 </file>
@@ -91,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,11 +125,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,283 +444,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4579F821-0BC8-2441-8ED6-E706CFC146C6}">
-  <dimension ref="A5:N11"/>
+  <dimension ref="A6:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="A6:M11"/>
+      <selection activeCell="K16" sqref="A6:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>27.9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>111.1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>28.12</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>110.6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>15</v>
+      <c r="C6" s="2">
+        <v>27.904900000000001</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10.541930000000001</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>27.905069999999998</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10.54247</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3">
-        <v>-0.2631</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>57</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-7.2589999999999998E-3</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>9.417E-3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>15</v>
+      <c r="C7" s="2">
+        <v>-0.26313999999999999</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.5495510000000001</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-0.26324399999999998</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>13.97584</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4.7590000000000002E-4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1.1290000000000001E-4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
+      <c r="C8" s="2">
+        <v>0.23254610000000001</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.303841</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.2325246</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.303844</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.3281</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.579</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2.0330000000000001E-3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8.4599999999999996E-4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>15</v>
+      <c r="C9" s="2">
+        <v>0.32807760000000002</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.2566790000000001</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.32808169999999998</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.256723</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
       </c>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>-7.7809999999999997E-3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.94650000000000001</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-7.8059999999999996E-3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2.5129999999999998E-4</v>
-      </c>
-      <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
+      <c r="C10" s="2">
+        <v>-1.117235</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.97286620000000001</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1.1172470000000001</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.97291989999999995</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
       </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
-        <v>-1.157E-2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>22.43</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-1.187E-2</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>2.0409999999999998E-3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>15</v>
+      <c r="C11" s="2">
+        <v>-1.188175</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.7355689999999999</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1.1881729999999999</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4.735538</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
       </c>
       <c r="N11" s="1"/>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-46.416539999999998</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>301.2373</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-46.421219999999998</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>590.56560000000002</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.4284409999999994</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>53.39969</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.4272460000000002</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>53.400120000000001</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.4394780000000003</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>50.926900000000003</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>7.4396529999999998</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>50.928690000000003</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-49.610909999999997</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>41.714060000000003</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-49.611579999999996</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>41.71698</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-50.014719999999997</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>208.22880000000001</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-50.014650000000003</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>208.22739999999999</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L6" r:id="rId1" xr:uid="{9C1E1157-0B70-4040-9783-B392CEB3DA08}"/>
-    <hyperlink ref="L7" r:id="rId2" xr:uid="{31161A3A-56A0-414E-B6BD-C40CBD917472}"/>
-    <hyperlink ref="L8" r:id="rId3" xr:uid="{B53EB088-5DDD-F94A-8F8E-841B6B13BBA4}"/>
-    <hyperlink ref="L9" r:id="rId4" xr:uid="{AC27412B-C80D-8947-9952-39092F22EF76}"/>
-    <hyperlink ref="L10" r:id="rId5" xr:uid="{9C000E7C-A903-3242-8D18-76E1BC573234}"/>
-    <hyperlink ref="L11" r:id="rId6" xr:uid="{AFB0C89F-1C73-3347-B04D-728DD6D061CF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Causal Inference/TermProject/Tables/LatexTables.xlsx
+++ b/Causal Inference/TermProject/Tables/LatexTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/AppliedEconometrics/Causal Inference/TermProject/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F53D2-2902-4A48-899C-FAAF0F1288B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484C660-9E9A-314C-8168-8E2BBEDF1D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="3020" windowWidth="28040" windowHeight="17440" xr2:uid="{8637332F-D254-3D43-93CC-278FF1B960FE}"/>
+    <workbookView xWindow="1580" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{8637332F-D254-3D43-93CC-278FF1B960FE}"/>
   </bookViews>
   <sheets>
     <sheet name="SumStats" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="33">
   <si>
     <t>&amp;</t>
   </si>
@@ -78,6 +78,63 @@
   </si>
   <si>
     <t>Net Change in Jobs, Construction</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Total Firms</t>
+  </si>
+  <si>
+    <t>Total Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Firms, Transportation </t>
+  </si>
+  <si>
+    <t>Total Firms, Accommodation</t>
+  </si>
+  <si>
+    <t>Total Firms, Construction</t>
+  </si>
+  <si>
+    <t>Total Firms, Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Employees, Transportation </t>
+  </si>
+  <si>
+    <t>Total Employees, Accommodation</t>
+  </si>
+  <si>
+    <t>Total Employees, Construction</t>
+  </si>
+  <si>
+    <t>Total Employees, Retail</t>
+  </si>
+  <si>
+    <t>net_t~tation</t>
+  </si>
+  <si>
+    <t>net_t~dation</t>
+  </si>
+  <si>
+    <t>net_tempjo~l</t>
+  </si>
+  <si>
+    <t>net_te~ction</t>
+  </si>
+  <si>
+    <t>Net Change in Temp. Jobs, Transportation</t>
+  </si>
+  <si>
+    <t>Net Change in Temp. Jobs, Accommodation</t>
+  </si>
+  <si>
+    <t>Net Change in Temp. Jobs, Retail</t>
+  </si>
+  <si>
+    <t>Net Change in Temp. Jobs, Construction</t>
   </si>
 </sst>
 </file>
@@ -444,18 +501,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4579F821-0BC8-2441-8ED6-E706CFC146C6}">
-  <dimension ref="A6:N16"/>
+  <dimension ref="A6:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="A6:K16"/>
+      <selection activeCell="K20" sqref="A6:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -489,9 +547,35 @@
       <c r="K6" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>-8.8260000000000005E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.7520000000000001E-2</v>
+      </c>
+      <c r="R6">
+        <v>-0.78569999999999995</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>-8.8279999999999997E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.754E-2</v>
+      </c>
+      <c r="V6">
+        <v>-0.85980000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -525,9 +609,35 @@
       <c r="K7" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>-8.1449999999999995E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="R7">
+        <v>-1.3260000000000001</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <v>-8.1320000000000003E-2</v>
+      </c>
+      <c r="U7">
+        <v>0.1249</v>
+      </c>
+      <c r="V7">
+        <v>-4.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -561,9 +671,35 @@
       <c r="K8" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>-0.20180000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="R8">
+        <v>-2.105</v>
+      </c>
+      <c r="S8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <v>-0.20180000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="V8">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -597,9 +733,35 @@
       <c r="K9" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>-0.23419999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="R9">
+        <v>-1.355</v>
+      </c>
+      <c r="S9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>-0.23430000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="V9">
+        <v>-1.802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -633,9 +795,8 @@
       <c r="K10" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -669,9 +830,8 @@
       <c r="K11" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -706,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -741,7 +901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -776,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -811,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -843,6 +1003,531 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-8.8260000000000005E-2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.7520000000000001E-2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-8.8279999999999997E-2</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.754E-2</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-8.1449999999999995E-2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-8.1320000000000003E-2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.1249</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-0.20180000000000001</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-0.20180000000000001</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-0.23419999999999999</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-0.23430000000000001</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>411.57510000000002</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>164.45310000000001</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>416.07409999999999</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>163.17250000000001</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4155.5720000000001</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1191.067</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4207.6080000000002</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>934.9538</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21.858059999999998</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>11.113009999999999</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>21.93113</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>10.932180000000001</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>56.446930000000002</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>20.094200000000001</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>56.96416</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>20.157720000000001</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>127.92829999999999</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44.134390000000003</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>128.952</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>44.142969999999998</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>33.018380000000001</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>13.863060000000001</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>33.482810000000001</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>13.70909</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>223.22389999999999</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>105.623</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>223.73740000000001</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>63.354120000000002</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>301.39929999999998</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>135.1344</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>305.40100000000001</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>79.708029999999994</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>325.05810000000002</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>114.9785</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>327.11270000000002</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>108.2213</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>493.95979999999997</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>137.49799999999999</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>497.95760000000001</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>97.219189999999998</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>28.10258</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10.82864</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>28.111550000000001</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>10.491239999999999</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
         <v>2</v>
       </c>
     </row>
